--- a/data/trans_orig/IP16A112_2023R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A112_2023R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CD81BC6-FFEA-4C40-982E-E476D215337D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB7462BC-29AA-4F02-A924-C68E5DE397A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8797754D-2909-4E22-86B2-BA13CF6789AA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{238CA69A-2124-48A6-A980-BFBA030D3805}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>47,48%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
   </si>
   <si>
     <t>56,05%</t>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C86E70-7109-4816-86AE-1D0E33C51807}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F44D4C-21F7-4F3D-B7CE-A2DEE9DA5ECD}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -961,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>50616</v>
+        <v>28232</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +976,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>45695</v>
+        <v>26184</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +991,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>96311</v>
+        <v>54416</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1012,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>34576</v>
+        <v>23755</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1027,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>29195</v>
+        <v>28419</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N8" s="7">
-        <v>63771</v>
+        <v>52174</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>85192</v>
+        <v>51987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>74890</v>
+        <v>54603</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1093,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="N9" s="7">
-        <v>160082</v>
+        <v>106590</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>28232</v>
+        <v>50616</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1131,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>26184</v>
+        <v>45695</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1146,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="N10" s="7">
-        <v>54416</v>
+        <v>96311</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1167,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>23755</v>
+        <v>34576</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1182,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>28419</v>
+        <v>29195</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1197,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="N11" s="7">
-        <v>52174</v>
+        <v>63771</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D12" s="7">
-        <v>51987</v>
+        <v>85192</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1233,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I12" s="7">
-        <v>54603</v>
+        <v>74890</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1248,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="N12" s="7">
-        <v>106590</v>
+        <v>160082</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP16A112_2023R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A112_2023R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB7462BC-29AA-4F02-A924-C68E5DE397A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{439F2F1F-2409-43B0-B8EB-A6A834D18992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{238CA69A-2124-48A6-A980-BFBA030D3805}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEB81458-7159-40C3-B6CE-A5E8A5BDC4F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
@@ -65,238 +65,298 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
   </si>
   <si>
     <t>56,05%</t>
   </si>
   <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
   </si>
   <si>
     <t>54,2%</t>
   </si>
   <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +367,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -403,39 +463,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -487,7 +547,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -598,13 +658,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -613,6 +666,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -677,19 +737,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68F44D4C-21F7-4F3D-B7CE-A2DEE9DA5ECD}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3E6AA3-64B3-4BB3-9E16-00F33B5AF5F6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -806,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>18140</v>
+        <v>9337</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -821,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>12732</v>
+        <v>8617</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -836,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>30872</v>
+        <v>17954</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -857,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>17730</v>
+        <v>11598</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -872,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>13872</v>
+        <v>7731</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -887,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="N5" s="7">
-        <v>31602</v>
+        <v>19329</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -908,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7">
-        <v>35870</v>
+        <v>20935</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -923,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>26604</v>
+        <v>16348</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -938,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="N6" s="7">
-        <v>62474</v>
+        <v>37283</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -964,7 +1044,7 @@
         <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>28232</v>
+        <v>21908</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -979,7 +1059,7 @@
         <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>26184</v>
+        <v>21314</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -994,7 +1074,7 @@
         <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>54416</v>
+        <v>43222</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>23755</v>
+        <v>24094</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I8" s="7">
-        <v>28419</v>
+        <v>23430</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N8" s="7">
-        <v>52174</v>
+        <v>47524</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>51987</v>
+        <v>46002</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>54603</v>
+        <v>44744</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>106590</v>
+        <v>90746</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>50616</v>
+        <v>18992</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>45695</v>
+        <v>23017</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>96311</v>
+        <v>42009</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>34576</v>
+        <v>24591</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>29195</v>
+        <v>13886</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="N11" s="7">
-        <v>63771</v>
+        <v>38477</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>85192</v>
+        <v>43583</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>74890</v>
+        <v>36903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>160082</v>
+        <v>80486</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1265,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>136</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>96988</v>
+        <v>25823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>84611</v>
+        <v>18539</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>181599</v>
+        <v>44362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>76061</v>
+        <v>36706</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>71487</v>
+        <v>39563</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="N14" s="7">
-        <v>147547</v>
+        <v>76269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,55 +1453,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>78</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62529</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>73</v>
+      </c>
+      <c r="I15" s="7">
+        <v>58102</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>151</v>
+      </c>
+      <c r="N15" s="7">
+        <v>120631</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>115</v>
+      </c>
+      <c r="D16" s="7">
+        <v>76061</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>114</v>
+      </c>
+      <c r="I16" s="7">
+        <v>71487</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>229</v>
+      </c>
+      <c r="N16" s="7">
+        <v>147547</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>136</v>
+      </c>
+      <c r="D17" s="7">
+        <v>96988</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>115</v>
+      </c>
+      <c r="I17" s="7">
+        <v>84611</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
         <v>251</v>
       </c>
-      <c r="D15" s="7">
+      <c r="N17" s="7">
+        <v>181599</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>251</v>
+      </c>
+      <c r="D18" s="7">
         <v>173049</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>229</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>156098</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>480</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>329146</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A112_2023R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A112_2023R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{439F2F1F-2409-43B0-B8EB-A6A834D18992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E4FE36-B14A-452D-B2A4-D63E86E340E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AEB81458-7159-40C3-B6CE-A5E8A5BDC4F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0712BF5-5633-492B-8EB7-B707714E750C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>44,6%</t>
   </si>
   <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
   </si>
   <si>
     <t>52,71%</t>
   </si>
   <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>48,16%</t>
   </si>
   <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>55,4%</t>
   </si>
   <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>47,29%</t>
   </si>
   <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
   </si>
   <si>
     <t>51,84%</t>
   </si>
   <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>47,62%</t>
   </si>
   <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
   </si>
   <si>
     <t>47,64%</t>
   </si>
   <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
   </si>
   <si>
     <t>47,63%</t>
   </si>
   <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
   </si>
   <si>
     <t>52,38%</t>
   </si>
   <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
   </si>
   <si>
     <t>52,36%</t>
   </si>
   <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
   </si>
   <si>
     <t>52,37%</t>
   </si>
   <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,55 +194,55 @@
     <t>43,58%</t>
   </si>
   <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
   </si>
   <si>
     <t>62,37%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>52,19%</t>
   </si>
   <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
   </si>
   <si>
     <t>56,42%</t>
   </si>
   <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>37,63%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
   </si>
   <si>
     <t>47,81%</t>
   </si>
   <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,109 +251,109 @@
     <t>41,3%</t>
   </si>
   <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
   </si>
   <si>
     <t>31,91%</t>
   </si>
   <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
   </si>
   <si>
     <t>36,77%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>58,7%</t>
   </si>
   <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
   </si>
   <si>
     <t>68,09%</t>
   </si>
   <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>63,23%</t>
   </si>
   <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
   </si>
   <si>
     <t>43,95%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
   </si>
   <si>
     <t>45,8%</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
   </si>
   <si>
     <t>56,05%</t>
   </si>
   <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>54,2%</t>
   </si>
   <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3E6AA3-64B3-4BB3-9E16-00F33B5AF5F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE3386E-1C83-44CD-890E-F3EB592E84BD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP16A112_2023R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A112_2023R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E4FE36-B14A-452D-B2A4-D63E86E340E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7862F2D6-A143-4B20-A661-C4716A8BB08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D0712BF5-5633-492B-8EB7-B707714E750C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5B33563B-A8B9-4BDC-998B-002BD1871140}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -41,10 +41,10 @@
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,226 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE3386E-1C83-44CD-890E-F3EB592E84BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4918B77F-AE6A-4D07-A734-DC3C4591FDFF}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>9337</v>
+        <v>8629</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I4" s="7">
-        <v>8617</v>
+        <v>9659</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
         <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>17954</v>
+        <v>18288</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>11598</v>
+        <v>7762</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>7731</v>
+        <v>12698</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +970,7 @@
         <v>35</v>
       </c>
       <c r="N5" s="7">
-        <v>19329</v>
+        <v>20460</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +988,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16391</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>31</v>
-      </c>
       <c r="I6" s="7">
-        <v>16348</v>
+        <v>22357</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1021,7 @@
         <v>73</v>
       </c>
       <c r="N6" s="7">
-        <v>37283</v>
+        <v>38748</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>21908</v>
+        <v>21716</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>21314</v>
+        <v>23264</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1074,7 @@
         <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>43222</v>
+        <v>44980</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1092,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7">
-        <v>24094</v>
+        <v>24907</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1107,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8" s="7">
-        <v>23430</v>
+        <v>25720</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1125,7 +1125,7 @@
         <v>72</v>
       </c>
       <c r="N8" s="7">
-        <v>47524</v>
+        <v>50627</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1143,25 +1143,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46623</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>75</v>
       </c>
-      <c r="D9" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
       <c r="I9" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1176,7 @@
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1196,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>18992</v>
+        <v>22793</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1211,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>23017</v>
+        <v>20080</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1229,7 +1229,7 @@
         <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>42009</v>
+        <v>42873</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1247,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>24591</v>
+        <v>14358</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1262,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I11" s="7">
-        <v>13886</v>
+        <v>26089</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1280,7 +1280,7 @@
         <v>53</v>
       </c>
       <c r="N11" s="7">
-        <v>38477</v>
+        <v>40447</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1298,25 +1298,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
       <c r="I12" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1331,7 @@
         <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1351,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>25823</v>
+        <v>18378</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1366,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>18539</v>
+        <v>27093</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1384,7 +1384,7 @@
         <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>44362</v>
+        <v>45471</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1402,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D14" s="7">
-        <v>36706</v>
+        <v>60808</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1417,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="7">
-        <v>39563</v>
+        <v>38107</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1435,7 +1435,7 @@
         <v>91</v>
       </c>
       <c r="N14" s="7">
-        <v>76269</v>
+        <v>98914</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1453,25 +1453,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>73</v>
+      </c>
+      <c r="D15" s="7">
+        <v>79186</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>78</v>
       </c>
-      <c r="D15" s="7">
-        <v>62529</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>73</v>
-      </c>
       <c r="I15" s="7">
-        <v>58102</v>
+        <v>65200</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1486,7 @@
         <v>151</v>
       </c>
       <c r="N15" s="7">
-        <v>120631</v>
+        <v>144385</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1506,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="7">
-        <v>76061</v>
+        <v>71517</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -1521,10 +1521,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>71487</v>
+        <v>80096</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -1539,7 +1539,7 @@
         <v>229</v>
       </c>
       <c r="N16" s="7">
-        <v>147547</v>
+        <v>151613</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -1557,10 +1557,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D17" s="7">
-        <v>96988</v>
+        <v>107835</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -1572,10 +1572,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="I17" s="7">
-        <v>84611</v>
+        <v>102613</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -1590,7 +1590,7 @@
         <v>251</v>
       </c>
       <c r="N17" s="7">
-        <v>181599</v>
+        <v>210448</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -1608,25 +1608,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>229</v>
+      </c>
+      <c r="D18" s="7">
+        <v>179352</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>251</v>
       </c>
-      <c r="D18" s="7">
-        <v>173049</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>229</v>
-      </c>
       <c r="I18" s="7">
-        <v>156098</v>
+        <v>182709</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1641,7 @@
         <v>480</v>
       </c>
       <c r="N18" s="7">
-        <v>329146</v>
+        <v>362061</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
